--- a/P_2_Design_application python/user stories.xlsx
+++ b/P_2_Design_application python/user stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zar3i\OneDrive\Bureau\Formation python\Projets\projet 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zar3i\OneDrive\Bureau\Formation python\newgit\Formation_developemeuse_application_Python_Projects\P_2_Design_application python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B33A71-9AF8-4C8B-9398-254D9447DAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70AC07EE-84C8-4F72-A361-E05EC9F547D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14EAAE7A-3ED4-4C6B-8CB8-7C66D84E98E8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>En tant que</t>
   </si>
@@ -85,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +266,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -297,59 +359,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,6 +375,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +480,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC984A82-9BC4-012E-6CA6-2A35B8107D3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -482,7 +557,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7485D84-12E6-4014-85CF-B48DC32E60AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,7 +653,7 @@
         <xdr:cNvPr id="5" name="ZoneTexte 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DC3229-BA9D-418A-B8B9-0688DBFDC08D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,7 +735,7 @@
         <xdr:cNvPr id="6" name="ZoneTexte 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A37C777-3E67-44AA-B228-CC1F0E0DB300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +812,7 @@
         <xdr:cNvPr id="7" name="ZoneTexte 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA62EC7F-48DF-4573-B223-57D071C036EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -820,7 +895,7 @@
         <xdr:cNvPr id="8" name="ZoneTexte 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116FEE33-FA94-EF75-54A0-9DBEBCEA835D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +972,7 @@
         <xdr:cNvPr id="10" name="ZoneTexte 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C83F59F-8D86-4B56-B0BE-7CCB8AD870F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +1055,7 @@
         <xdr:cNvPr id="11" name="ZoneTexte 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C23CBFF-0080-40BA-9D88-D532D27DE6E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1057,7 +1132,7 @@
         <xdr:cNvPr id="12" name="ZoneTexte 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB99C011-73B9-47F5-B477-378C1839C3B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1209,7 @@
         <xdr:cNvPr id="13" name="ZoneTexte 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D3AE4E-3782-4326-8D5A-7386582DD88D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1295,7 @@
         <xdr:cNvPr id="17" name="ZoneTexte 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890C9935-6395-4FC7-B3A8-93C1D75F43D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1373,7 @@
         <xdr:cNvPr id="20" name="ZoneTexte 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088F2FD7-D1D1-4BF4-ABF9-86E7C8F1E9AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1586,7 @@
         <xdr:cNvPr id="21" name="ZoneTexte 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FCAC95-62E1-4578-9BA9-53FA3C8D190F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1788,7 @@
         <xdr:cNvPr id="22" name="ZoneTexte 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80F3351-ED79-435A-88FC-B97EFD2ABB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1973,7 @@
         <xdr:cNvPr id="18" name="ZoneTexte 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD0ACF5-9434-4EE7-9DA8-D2AF664E6435}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2258,7 @@
         <xdr:cNvPr id="19" name="ZoneTexte 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAA596B-B0D8-40D5-81DA-768537933074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,22 +2320,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>60113</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>85513</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>156632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="ZoneTexte 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF828866-80CB-4900-8BB7-539EBC1553C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2455333" y="8801100"/>
+          <a:off x="2480733" y="12992099"/>
           <a:ext cx="1617980" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2356,7 +2431,7 @@
         <xdr:cNvPr id="25" name="ZoneTexte 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7EB54A-9196-4E5F-BBAC-6F041A637F16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2522,7 @@
         <xdr:cNvPr id="26" name="ZoneTexte 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856325AF-9B96-4B25-8DDD-2CFC0D9ABBE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2613,7 @@
         <xdr:cNvPr id="29" name="ZoneTexte 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668ABA82-D668-46F7-9C74-178F61513470}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2690,7 @@
         <xdr:cNvPr id="30" name="ZoneTexte 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4C6FA7-FA44-4816-B0B6-1A335943750D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2767,7 @@
         <xdr:cNvPr id="34" name="ZoneTexte 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69834475-9CDC-4A29-BBF0-5CB0505973B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +3225,7 @@
         <xdr:cNvPr id="36" name="ZoneTexte 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97E2F3F-C18F-421C-B80A-47A70C1B353F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3523,7 @@
         <xdr:cNvPr id="38" name="ZoneTexte 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74FDAF9-AED6-4652-8E5B-A49534166EE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3736,7 @@
         <xdr:cNvPr id="39" name="ZoneTexte 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A638B399-54E2-4970-9AF3-37CCA3ED4485}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,23 +3797,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>499533</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>14393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
+      <xdr:colOff>492760</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="ZoneTexte 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B58C7E-8070-42CD-AB68-F5E826C2BD32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,8 +3821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2301240" y="5425440"/>
-          <a:ext cx="1615440" cy="274320"/>
+          <a:off x="2887133" y="10352193"/>
+          <a:ext cx="789094" cy="277707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3820,7 +3895,7 @@
         <xdr:cNvPr id="42" name="ZoneTexte 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C28F49-5212-4895-AACC-05396C96590A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3897,7 +3972,7 @@
         <xdr:cNvPr id="43" name="ZoneTexte 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742B19AC-CEA4-44D0-8F6E-BF4B3B76F246}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,7 +4049,7 @@
         <xdr:cNvPr id="44" name="ZoneTexte 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4526626-C175-4F90-8410-1C39FB5138B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4051,7 +4126,7 @@
         <xdr:cNvPr id="45" name="ZoneTexte 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4F7DEE-FEAA-4F4F-9383-D24ABE47B770}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4203,7 @@
         <xdr:cNvPr id="46" name="ZoneTexte 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44ED3D33-EC90-426E-AF2F-4B8B0193A2D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +4280,7 @@
         <xdr:cNvPr id="47" name="ZoneTexte 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AD1368-4ED2-47E6-AB78-1F529B8DC8E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4282,7 +4357,7 @@
         <xdr:cNvPr id="48" name="ZoneTexte 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886CB361-6D51-45AA-B465-B192E7E3DFA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4360,7 +4435,7 @@
         <xdr:cNvPr id="49" name="ZoneTexte 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556A07FF-335F-4205-A550-1B5BBD87C6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4513,7 @@
         <xdr:cNvPr id="50" name="ZoneTexte 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0324EC6A-57B0-4D17-83D9-10470D851D27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4651,7 +4726,7 @@
         <xdr:cNvPr id="51" name="ZoneTexte 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812D413C-E9F2-4038-BC0A-5693375A0E85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4853,7 +4928,7 @@
         <xdr:cNvPr id="52" name="ZoneTexte 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E2B075-C6A2-4275-A4F8-BFB1DE2BA5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5038,7 +5113,7 @@
         <xdr:cNvPr id="53" name="ZoneTexte 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277A765B-B362-4E22-95A6-96EDD989C695}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5323,7 +5398,7 @@
         <xdr:cNvPr id="54" name="ZoneTexte 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8312838-B57C-445C-B12D-E03D2EEE2F84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5400,7 +5475,7 @@
         <xdr:cNvPr id="55" name="ZoneTexte 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC865514-E715-433F-AA61-C3BA5049280C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5461,23 +5536,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>98212</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="ZoneTexte 72">
+        <xdr:cNvPr id="83" name="ZoneTexte 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA618722-5E1C-4871-972B-974F07B588B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5485,8 +5560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7268632" y="14903027"/>
-          <a:ext cx="3605108" cy="931333"/>
+          <a:off x="887307" y="18895059"/>
+          <a:ext cx="1428326" cy="620607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5514,157 +5589,34 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Étant donné que </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: l'utilisateur a accédé à la page de calendrier</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lorsque</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : l'utilisateur sélectionne un événement qu'il souhaite supprimer</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Et que </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: l'utilisateur clique sur le bouton "Supprimer l'événement"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alors</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : le système affiche le message "Supprimer l’événement " </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lorsque</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : l'utilisateur clique sur le bouton "Confirmer"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alors </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: le système supprime l'événement du calendrier de l'utilisateur</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" b="0">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Page</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> d'interface de chat </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200" b="1">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5674,23 +5626,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>98212</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>103294</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95674</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>62654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="ZoneTexte 81">
+        <xdr:cNvPr id="84" name="ZoneTexte 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB03731-0C47-4632-8614-0781C6A24463}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5698,8 +5650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7268632" y="14903027"/>
-          <a:ext cx="3605108" cy="931333"/>
+          <a:off x="2490894" y="20165908"/>
+          <a:ext cx="1617980" cy="479213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5729,153 +5681,36 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Étant donné que </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: l'utilisateur a accédé à la page de calendrier</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lorsque</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : l'utilisateur sélectionne un événement qu'il souhaite supprimer</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Et que </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: l'utilisateur clique sur le bouton "Supprimer l'événement"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alors</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : le système affiche le message "Supprimer l’événement " </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lorsque</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> : l'utilisateur clique sur le bouton "Confirmer"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alors </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: le système supprime l'événement du calendrier de l'utilisateur</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" b="0">
+            <a:rPr lang="fr-FR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          Utilisateur</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Bénévole</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ou élève)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1000" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -5887,23 +5722,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98214</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>183728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660401</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>88902</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="ZoneTexte 82">
+        <xdr:cNvPr id="85" name="ZoneTexte 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E787FD6-A07E-49CA-8EB0-8BB7D5D9054F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5911,8 +5746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="883920" y="3931920"/>
-          <a:ext cx="1424940" cy="373380"/>
+          <a:off x="4111414" y="17227128"/>
+          <a:ext cx="1358054" cy="277707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5940,23 +5775,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1200" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Page de connixion</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>énvoyer des messages</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5964,23 +5794,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72813</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8468</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="ZoneTexte 83">
+        <xdr:cNvPr id="56" name="ZoneTexte 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E249C483-1EEF-4FDD-8BCF-D556A9F197ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5988,8 +5818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="2674620"/>
-          <a:ext cx="1615440" cy="472440"/>
+          <a:off x="4086013" y="18260060"/>
+          <a:ext cx="1527388" cy="425873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6019,40 +5849,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>          Utilisateur</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1000" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(Bénévole</a:t>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lire</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> ou élève)</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1000" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> des messages reçu de bénévole ou élève</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6060,23 +5877,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30478</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60959</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="ZoneTexte 84">
+        <xdr:cNvPr id="57" name="ZoneTexte 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B974AB-4DA5-465C-8BA6-6ACCE46117B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6084,8 +5901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2301240" y="5425440"/>
-          <a:ext cx="1615440" cy="274320"/>
+          <a:off x="4043678" y="19326860"/>
+          <a:ext cx="1622214" cy="578273"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6113,28 +5930,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1000" b="0" cap="all" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>énévole</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1050" b="0" cap="none" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>consulter l'historique de mes conversations avec bénévole ou élève</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6142,23 +5949,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174413</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>31327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="ZoneTexte 87">
+        <xdr:cNvPr id="58" name="ZoneTexte 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAD7728-D56B-4102-A9B5-B67DB3C9BBD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6166,8 +5973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2796540" y="4747260"/>
-          <a:ext cx="670560" cy="304800"/>
+          <a:off x="4187613" y="20613794"/>
+          <a:ext cx="1510454" cy="400473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6195,8 +6002,2020 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ajouter un contact  à</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> mon contacts </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="700" b="0" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182879</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>90594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="ZoneTexte 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4196079" y="21976927"/>
+          <a:ext cx="1476587" cy="451273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>supprimer un contact </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> à ma liste de contact </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="700" b="0" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33868</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>73661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="ZoneTexte 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638801" y="17675861"/>
+          <a:ext cx="1676400" cy="434339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>communiquer avec les autres élèves et bénévoles</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787399</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>33865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="ZoneTexte 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655732" y="20630727"/>
+          <a:ext cx="1532467" cy="544405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>discuter evec bénévole ou avec des autres élèves</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>72813</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>65195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="ZoneTexte 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5677746" y="19343795"/>
+          <a:ext cx="1358054" cy="595205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pouvoir retrouver un lien partagé lors d'une conversation passée</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>792478</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>90595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="ZoneTexte 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5601545" y="21976928"/>
+          <a:ext cx="1645921" cy="290405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ne plus recevoir ses messages</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84668</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>14391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="ZoneTexte 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7281335" y="16498991"/>
+          <a:ext cx="3877731" cy="2754209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Critère d’acceptation 1 :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scénario </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Créer une nouvelle conversation et envoyer un message </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur a accédé à l'interface de chat </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur clique sur "Nouveau Message"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système affiche la liste de contacts</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur sélectionne un ou plusieurs contacts dans sa liste </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: entre un message dans le champ dédié</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: clique le bouton "Envoyer"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: le système envoie le message au(x) destinataire(s)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: affiche le message envoyé dans le fil de conversation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Critère d’acceptation 2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scénari</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>o : Répondre à une conversation existante</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur a accédé à l'interface de chat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur a accédé à une conversation existante </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur clique sur le champ de réponse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur entre un message</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur clique sur le bouton "Envoyer"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système envoie le message au destinataire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système affiche le message dans l'historique des messages</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>22856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50802</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="ZoneTexte 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7272868" y="19301456"/>
+          <a:ext cx="3953934" cy="739143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur a accédé à l'interface de chat </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur a reçu un message d'un autre utilisateur</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur accède à la conversation correspondante</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système affiche le message reçu dans le fil de conversation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>59270</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>183727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>778936</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="ZoneTexte 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7255937" y="20021127"/>
+          <a:ext cx="3903132" cy="1602740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur a accédé à l'interface de chat </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur clique sur le bouton "Contacts"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système affiche la liste des contacts</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur clique sur le bouton "Ajouter un contact"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système affiche une barre de recherche "Rechercher par nom" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur entre le nom d'un autre utilisateur (élève ou bénévole) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système recherche ce nom dans la base de données des utilisateurs </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système affiche les résultats correspondants</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur sélectionne un contact</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur clique sur le bouton "Ajouter"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système ajoute ce contact à la liste des contacts de l'utilisateur</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50802</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>183727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>516468</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="ZoneTexte 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7247469" y="21697527"/>
+          <a:ext cx="3649132" cy="1213274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur a accédé à l'interface de chat </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur clique sur le bouton "Contacts"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système affiche la liste des contacts </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur sélectionne un contact</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: l'utilisateur clique sur le bouton "Supprimer"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: le système affiche le message "supprimer contact"de vo contacts?" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : l'utilisateur clique sur le bouton "Oui"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : le système supprime le contact de la liste de contacts</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="ZoneTexte 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="7395633"/>
+          <a:ext cx="1617980" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          Utilisateur</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Bénévole</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ou élève )</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="ZoneTexte 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="887307" y="18895059"/>
+          <a:ext cx="1428326" cy="620607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Page de gestion des tâches </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>183727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>287020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="ZoneTexte 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2796540" y="4747260"/>
+          <a:ext cx="673947" cy="311574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr lang="fr-FR" sz="1000" b="0" cap="all" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -6211,6 +8030,2257 @@
               </a:solidFill>
             </a:rPr>
             <a:t>lève </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>439420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="ZoneTexte 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="4899660"/>
+          <a:ext cx="673947" cy="311574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="all" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>é</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lève </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>491065</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369145</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>99907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="ZoneTexte 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2878665" y="25027466"/>
+          <a:ext cx="673947" cy="311574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="all" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>é</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lève </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>32173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="ZoneTexte 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2810933" y="29091466"/>
+          <a:ext cx="789094" cy="277707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="all" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>énévole</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1050" b="0" cap="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="ZoneTexte 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064001" y="23647400"/>
+          <a:ext cx="1549399" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Voir les tâches non terminer qui m'ont été confiées par le bénévole</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>59265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="ZoneTexte 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4106333" y="24671866"/>
+          <a:ext cx="1549399" cy="440266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>créer une tâche pour moi même</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="ZoneTexte 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="26187400"/>
+          <a:ext cx="1676400" cy="440266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>marquer un tâche comme terminée</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110065</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="ZoneTexte 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5630332" y="23630466"/>
+          <a:ext cx="1676400" cy="601134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>prendre connaissance du travail que mon bénévole m'a donné</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>160865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="ZoneTexte 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647267" y="24654932"/>
+          <a:ext cx="1642534" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>organiser mon travail personnel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>33865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="ZoneTexte 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5630333" y="26204332"/>
+          <a:ext cx="1642534" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>notifier mon bénévole et demander sa validation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787398</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>778934</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="ZoneTexte 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7188198" y="23630466"/>
+          <a:ext cx="3970869" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : l'élève a accédé à la page de gestionnaire des tâches</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche les tâche en attente qui ont été assignées à l'élève par </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>            un bénévole</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>778934</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787403</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>126997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="ZoneTexte 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7179734" y="24383995"/>
+          <a:ext cx="3987802" cy="1354669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: l'élève a accédé à la page de gestionnaire des tâches </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : l'élève clique sur le bouton "Créer une tâche"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche un formulaire de création de tâche </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : l'élève entre un nom de tâche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: l'élève entre la date limite d'exécution de la tâche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: l'élève clique sur le bouton "Enregistrer"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche la tâche dans la partie "Tâches en attente"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche la tâche à la date de fin correspondante dans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>       le calendrier de l'élève</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>770467</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="ZoneTexte 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7205133" y="25857199"/>
+          <a:ext cx="3945467" cy="1303867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: l'élève a accédé à la page de gestionnaire des tâches </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : l'élève clique sur une tâche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: l'élève clique sur le bouton "Marquer comme terminé</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche un message de confirmation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : l'élève clique sur le bouton "Terminé" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche que la tâche est terminée</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système déplace la tâche vers la catégorie "Tâches terminées" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: le système notifie par mail le bénévole correspondant</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="ZoneTexte 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4055534" y="27457401"/>
+          <a:ext cx="1549399" cy="491066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Voir les tâche demander mes élèves</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="ZoneTexte 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4030134" y="28871334"/>
+          <a:ext cx="1549399" cy="465666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>créer une tâche pour un ou plusieurs élèves</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="ZoneTexte 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4047067" y="30717066"/>
+          <a:ext cx="1591733" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>valider qu'une tâche marquée par mon élève comme terminée est bien achevée</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>702734</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="ZoneTexte 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7213600" y="27330399"/>
+          <a:ext cx="3869267" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le bénévole accède à la page de gestionnaire des tâches</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche les tâches en attente assignées par le bénévole aux</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="900" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>             élèves</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="ZoneTexte 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655734" y="27423533"/>
+          <a:ext cx="1557866" cy="440267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>surveiller l'avancement </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>du travail de mes élèves</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="ZoneTexte 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7255934" y="30674734"/>
+          <a:ext cx="3869266" cy="1058333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: l'élève a accédé à la page de gestionnaire des tâches</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : l'élève clique sur une tâche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: l'élève clique sur le bouton "Terminé" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche que la tâche est terminée</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système déplace la tâche vers la catégorie "Tâches terminées" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système notifie par mail le bénévole correspondant</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="ZoneTexte 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5681134" y="28930600"/>
+          <a:ext cx="1574800" cy="491067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>guider mes élèves dans leur travail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="ZoneTexte 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="28058532"/>
+          <a:ext cx="4072467" cy="2446868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Étant donné que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: le bénévole a accédé à la page de gestionnaire tâches </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le bénévole clique sur le bouton "Créer une tâche"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche un formulaire de création de tâche </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le bénévole entre un nom de tâche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: le bénévole entre la date limite d'exécution de la tâche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: le bénévole clique sur le bouton "Ajouter des élèves" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche la liste des élèves du bénévole </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le bénévole sélectionne un ou plusieurs élèves</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et que </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: le bénévole clique sur le bouton ajouter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: le système assigne la tâche à / aux élève(s) sélectionné(s) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système renvoie le bénévole à la page de création de tâche </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lorsque</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le bénévole clique sur le bouton "Enregistrer"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système enregistre la tâche</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système notifie par mail les élèves sélectionnés</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Et</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> : le système affiche la tâche sur le gestionnaire des tâches du bénévole</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="ZoneTexte 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655734" y="30844066"/>
+          <a:ext cx="1566333" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>contrôler le travail de</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="0" cap="none" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> mes élèves</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6517,10 +10587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EE222D-091D-4060-A8E3-42B6FF7BB2D6}">
-  <dimension ref="B8:N112"/>
+  <dimension ref="B8:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J105" sqref="J100:N112"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165:I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6529,27 +10599,27 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -6560,11 +10630,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -6575,11 +10645,11 @@
       <c r="G10" s="18"/>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -6590,11 +10660,11 @@
       <c r="G11" s="18"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -6605,11 +10675,11 @@
       <c r="G12" s="18"/>
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -6620,11 +10690,11 @@
       <c r="G13" s="18"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
@@ -6635,11 +10705,11 @@
       <c r="G14" s="18"/>
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -6650,11 +10720,11 @@
       <c r="G15" s="18"/>
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
@@ -6665,11 +10735,11 @@
       <c r="G16" s="18"/>
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -6680,11 +10750,11 @@
       <c r="G17" s="18"/>
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
@@ -6695,11 +10765,11 @@
       <c r="G18" s="18"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
@@ -6710,11 +10780,11 @@
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
@@ -6725,11 +10795,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="15"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
@@ -6740,11 +10810,11 @@
       <c r="G21" s="18"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
@@ -6755,11 +10825,11 @@
       <c r="G22" s="18"/>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
@@ -6770,11 +10840,11 @@
       <c r="G23" s="18"/>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
@@ -6785,71 +10855,71 @@
       <c r="G24" s="20"/>
       <c r="H24" s="19"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="33"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
       <c r="H25" s="15"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="17"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
@@ -6860,11 +10930,11 @@
       <c r="G29" s="18"/>
       <c r="H29" s="15"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
@@ -6875,11 +10945,11 @@
       <c r="G30" s="18"/>
       <c r="H30" s="17"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="11"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
@@ -6890,11 +10960,11 @@
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="11"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
@@ -6905,1238 +10975,2091 @@
       <c r="G32" s="20"/>
       <c r="H32" s="19"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="22" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="22" t="s">
+      <c r="I34" s="13"/>
+      <c r="J34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="15"/>
       <c r="E35" s="16"/>
       <c r="F35" s="15"/>
       <c r="G35" s="16"/>
       <c r="H35" s="15"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="8"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
       <c r="H37" s="17"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="11"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
       <c r="H38" s="17"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="11"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="30"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="11"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="30"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="19"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="11"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="30"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="15"/>
       <c r="G41" s="16"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="11"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="11"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
       <c r="H43" s="17"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="11"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
       <c r="H44" s="17"/>
       <c r="I44" s="18"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="11"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
       <c r="H45" s="19"/>
       <c r="I45" s="20"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="33"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="17"/>
       <c r="E46" s="18"/>
       <c r="F46" s="15"/>
       <c r="G46" s="16"/>
       <c r="H46" s="15"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="27"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
       <c r="H47" s="17"/>
       <c r="I47" s="18"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="11"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="30"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="17"/>
       <c r="E48" s="18"/>
       <c r="F48" s="17"/>
       <c r="G48" s="18"/>
       <c r="H48" s="17"/>
       <c r="I48" s="18"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="11"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="30"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="17"/>
       <c r="E49" s="18"/>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
       <c r="H49" s="17"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="11"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
       <c r="F50" s="19"/>
       <c r="G50" s="20"/>
       <c r="H50" s="19"/>
       <c r="I50" s="20"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="14"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
       <c r="F51" s="15"/>
       <c r="G51" s="16"/>
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="8"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="17"/>
       <c r="G52" s="18"/>
       <c r="H52" s="17"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="11"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
       <c r="H53" s="17"/>
       <c r="I53" s="18"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="11"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="17"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19"/>
       <c r="I54" s="20"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="11"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="30"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
       <c r="H55" s="15"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="11"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="30"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="17"/>
       <c r="E56" s="18"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
       <c r="H56" s="17"/>
       <c r="I56" s="18"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="11"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="30"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="17"/>
       <c r="E57" s="18"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
       <c r="H57" s="17"/>
       <c r="I57" s="18"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="11"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="30"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="19"/>
       <c r="E58" s="20"/>
       <c r="F58" s="19"/>
       <c r="G58" s="20"/>
       <c r="H58" s="19"/>
       <c r="I58" s="20"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="14"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="33"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="34" t="s">
+      <c r="E60" s="7"/>
+      <c r="F60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37" t="s">
+      <c r="G60" s="8"/>
+      <c r="H60" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I60" s="37"/>
-      <c r="J60" s="34" t="s">
+      <c r="I60" s="9"/>
+      <c r="J60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="35"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="7"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="15"/>
       <c r="E61" s="16"/>
       <c r="F61" s="15"/>
       <c r="G61" s="16"/>
       <c r="H61" s="15"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="8"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="27"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="17"/>
       <c r="E62" s="18"/>
       <c r="F62" s="17"/>
       <c r="G62" s="18"/>
       <c r="H62" s="17"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="11"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="30"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="17"/>
       <c r="E63" s="18"/>
       <c r="F63" s="17"/>
       <c r="G63" s="18"/>
       <c r="H63" s="17"/>
       <c r="I63" s="18"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="11"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="30"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="28"/>
-      <c r="C64" s="29"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="17"/>
       <c r="E64" s="18"/>
       <c r="F64" s="17"/>
       <c r="G64" s="18"/>
       <c r="H64" s="17"/>
       <c r="I64" s="18"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="11"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="30"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="28"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="17"/>
       <c r="E65" s="18"/>
       <c r="F65" s="17"/>
       <c r="G65" s="18"/>
       <c r="H65" s="17"/>
       <c r="I65" s="18"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="11"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="28"/>
-      <c r="C66" s="29"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
       <c r="D66" s="17"/>
       <c r="E66" s="18"/>
       <c r="F66" s="17"/>
       <c r="G66" s="18"/>
       <c r="H66" s="17"/>
       <c r="I66" s="18"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="11"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="30"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="17"/>
       <c r="E67" s="18"/>
       <c r="F67" s="17"/>
       <c r="G67" s="18"/>
       <c r="H67" s="17"/>
       <c r="I67" s="18"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="11"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="30"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="28"/>
-      <c r="C68" s="29"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="17"/>
       <c r="E68" s="18"/>
       <c r="F68" s="17"/>
       <c r="G68" s="18"/>
       <c r="H68" s="17"/>
       <c r="I68" s="18"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="11"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="30"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B69" s="28"/>
-      <c r="C69" s="29"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
       <c r="D69" s="17"/>
       <c r="E69" s="18"/>
       <c r="F69" s="17"/>
       <c r="G69" s="18"/>
       <c r="H69" s="17"/>
       <c r="I69" s="18"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="11"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="30"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B70" s="28"/>
-      <c r="C70" s="29"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="17"/>
       <c r="E70" s="18"/>
       <c r="F70" s="17"/>
       <c r="G70" s="18"/>
       <c r="H70" s="17"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="11"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="30"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B71" s="28"/>
-      <c r="C71" s="29"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="17"/>
       <c r="E71" s="18"/>
       <c r="F71" s="17"/>
       <c r="G71" s="18"/>
       <c r="H71" s="17"/>
       <c r="I71" s="18"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="11"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="30"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
       <c r="D72" s="17"/>
       <c r="E72" s="18"/>
       <c r="F72" s="17"/>
       <c r="G72" s="18"/>
       <c r="H72" s="17"/>
       <c r="I72" s="18"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="11"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="30"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="17"/>
       <c r="E73" s="18"/>
       <c r="F73" s="17"/>
       <c r="G73" s="18"/>
       <c r="H73" s="17"/>
       <c r="I73" s="18"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="11"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B74" s="28"/>
-      <c r="C74" s="29"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
       <c r="D74" s="17"/>
       <c r="E74" s="18"/>
       <c r="F74" s="17"/>
       <c r="G74" s="18"/>
       <c r="H74" s="17"/>
       <c r="I74" s="18"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="11"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="30"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B75" s="28"/>
-      <c r="C75" s="29"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
       <c r="D75" s="17"/>
       <c r="E75" s="18"/>
       <c r="F75" s="17"/>
       <c r="G75" s="18"/>
       <c r="H75" s="17"/>
       <c r="I75" s="18"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="11"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B76" s="28"/>
-      <c r="C76" s="29"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
       <c r="D76" s="17"/>
       <c r="E76" s="18"/>
       <c r="F76" s="17"/>
       <c r="G76" s="18"/>
       <c r="H76" s="17"/>
       <c r="I76" s="18"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="11"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="30"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
       <c r="D77" s="17"/>
       <c r="E77" s="18"/>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
       <c r="H77" s="17"/>
       <c r="I77" s="18"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="11"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="30"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="17"/>
       <c r="E78" s="18"/>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
       <c r="H78" s="17"/>
       <c r="I78" s="18"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="11"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="30"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B79" s="28"/>
-      <c r="C79" s="29"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
       <c r="D79" s="17"/>
       <c r="E79" s="18"/>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
       <c r="H79" s="17"/>
       <c r="I79" s="18"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="11"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="30"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B80" s="28"/>
-      <c r="C80" s="29"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
       <c r="D80" s="17"/>
       <c r="E80" s="18"/>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
       <c r="H80" s="17"/>
       <c r="I80" s="18"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="11"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="30"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
       <c r="D81" s="17"/>
       <c r="E81" s="18"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
       <c r="H81" s="19"/>
       <c r="I81" s="20"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="14"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="33"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
       <c r="D82" s="17"/>
       <c r="E82" s="18"/>
       <c r="F82" s="15"/>
       <c r="G82" s="16"/>
       <c r="H82" s="15"/>
       <c r="I82" s="16"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="8"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="27"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
       <c r="D83" s="17"/>
       <c r="E83" s="18"/>
       <c r="F83" s="17"/>
       <c r="G83" s="18"/>
       <c r="H83" s="17"/>
       <c r="I83" s="18"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="11"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="30"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B84" s="28"/>
-      <c r="C84" s="29"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
       <c r="D84" s="17"/>
       <c r="E84" s="18"/>
       <c r="F84" s="17"/>
       <c r="G84" s="18"/>
       <c r="H84" s="17"/>
       <c r="I84" s="18"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="11"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="30"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="28"/>
-      <c r="C85" s="29"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
       <c r="D85" s="17"/>
       <c r="E85" s="18"/>
       <c r="F85" s="17"/>
       <c r="G85" s="18"/>
       <c r="H85" s="17"/>
       <c r="I85" s="18"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="11"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="30"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="28"/>
-      <c r="C86" s="29"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
       <c r="F86" s="19"/>
       <c r="G86" s="20"/>
       <c r="H86" s="19"/>
       <c r="I86" s="20"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="14"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="33"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B88" s="21"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="22" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="22" t="s">
+      <c r="E88" s="13"/>
+      <c r="F88" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G88" s="23"/>
-      <c r="H88" s="22" t="s">
+      <c r="G88" s="13"/>
+      <c r="H88" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I88" s="23"/>
-      <c r="J88" s="22" t="s">
+      <c r="I88" s="13"/>
+      <c r="J88" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="23"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="15"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="40"/>
       <c r="G89" s="16"/>
       <c r="H89" s="15"/>
       <c r="I89" s="16"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="8"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="27"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B90" s="1"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="17"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="41"/>
       <c r="G90" s="18"/>
       <c r="H90" s="17"/>
       <c r="I90" s="18"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="11"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="30"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B91" s="1"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="17"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="41"/>
       <c r="G91" s="18"/>
       <c r="H91" s="17"/>
       <c r="I91" s="18"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="11"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B92" s="1"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="17"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="41"/>
       <c r="G92" s="18"/>
       <c r="H92" s="17"/>
       <c r="I92" s="18"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="11"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="30"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="17"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="41"/>
       <c r="G93" s="18"/>
       <c r="H93" s="17"/>
       <c r="I93" s="18"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="11"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="30"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B94" s="1"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="17"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="41"/>
       <c r="G94" s="18"/>
       <c r="H94" s="17"/>
       <c r="I94" s="18"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="11"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="30"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B95" s="1"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="17"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="41"/>
       <c r="G95" s="18"/>
       <c r="H95" s="17"/>
       <c r="I95" s="18"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="11"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="30"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B96" s="1"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="17"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="41"/>
       <c r="G96" s="18"/>
       <c r="H96" s="17"/>
       <c r="I96" s="18"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="11"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="30"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B97" s="1"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="17"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="41"/>
       <c r="G97" s="18"/>
       <c r="H97" s="17"/>
       <c r="I97" s="18"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="11"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="30"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B98" s="1"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="17"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="41"/>
       <c r="G98" s="18"/>
       <c r="H98" s="17"/>
       <c r="I98" s="18"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="11"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="30"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="14"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="30"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B100" s="1"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="8"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="30"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B101" s="1"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="17"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="41"/>
       <c r="G101" s="18"/>
       <c r="H101" s="17"/>
       <c r="I101" s="18"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="11"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="30"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B102" s="1"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="17"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="41"/>
       <c r="G102" s="18"/>
       <c r="H102" s="17"/>
       <c r="I102" s="18"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="11"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="30"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B103" s="1"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="11"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="33"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B104" s="1"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="14"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="27"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B105" s="1"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="8"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="30"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B106" s="1"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="17"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="41"/>
       <c r="G106" s="18"/>
       <c r="H106" s="17"/>
       <c r="I106" s="18"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="11"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="30"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B107" s="1"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="11"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="30"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="11"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="27"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="11"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="30"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B110" s="1"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="17"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="41"/>
       <c r="I110" s="18"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="11"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="30"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B111" s="1"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="17"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="41"/>
       <c r="I111" s="18"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="11"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="30"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="14"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="30"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="55"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="30"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="55"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="30"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="55"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="30"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B116" s="55"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="30"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B117" s="55"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="27"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="55"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="30"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="55"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="30"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120" s="55"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="30"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" s="55"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="30"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="55"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="30"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="55"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="33"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="10"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G126" s="13"/>
+      <c r="H126" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" s="13"/>
+      <c r="J126" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="13"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="58"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="26"/>
+      <c r="N127" s="27"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="59"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="30"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="59"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="30"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="59"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="33"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="59"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="26"/>
+      <c r="N131" s="27"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B132" s="59"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="30"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="59"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="30"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134" s="59"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="30"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B135" s="59"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="30"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="59"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="30"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="59"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="29"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="30"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="59"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="32"/>
+      <c r="M138" s="32"/>
+      <c r="N138" s="33"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="59"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="26"/>
+      <c r="M139" s="26"/>
+      <c r="N139" s="27"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="59"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="30"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="59"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="29"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="30"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B142" s="59"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="30"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143" s="59"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="30"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="59"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="52"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="30"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B145" s="59"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="29"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="30"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="59"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="32"/>
+      <c r="L146" s="32"/>
+      <c r="M146" s="32"/>
+      <c r="N146" s="33"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B147" s="59"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="26"/>
+      <c r="M147" s="26"/>
+      <c r="N147" s="27"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="59"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="30"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="59"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="29"/>
+      <c r="M149" s="29"/>
+      <c r="N149" s="30"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B150" s="59"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="32"/>
+      <c r="L150" s="32"/>
+      <c r="M150" s="32"/>
+      <c r="N150" s="33"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="59"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="51"/>
+      <c r="K151" s="51"/>
+      <c r="L151" s="51"/>
+      <c r="M151" s="51"/>
+      <c r="N151" s="51"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="59"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
+      <c r="L152" s="51"/>
+      <c r="M152" s="51"/>
+      <c r="N152" s="51"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B153" s="59"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="L153" s="51"/>
+      <c r="M153" s="51"/>
+      <c r="N153" s="51"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B154" s="59"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="51"/>
+      <c r="K154" s="51"/>
+      <c r="L154" s="51"/>
+      <c r="M154" s="51"/>
+      <c r="N154" s="51"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B155" s="59"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="51"/>
+      <c r="K155" s="51"/>
+      <c r="L155" s="51"/>
+      <c r="M155" s="51"/>
+      <c r="N155" s="51"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B156" s="59"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="51"/>
+      <c r="K156" s="51"/>
+      <c r="L156" s="51"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="51"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B157" s="59"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="51"/>
+      <c r="K157" s="51"/>
+      <c r="L157" s="51"/>
+      <c r="M157" s="51"/>
+      <c r="N157" s="51"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="59"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="51"/>
+      <c r="K158" s="51"/>
+      <c r="L158" s="51"/>
+      <c r="M158" s="51"/>
+      <c r="N158" s="51"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159" s="59"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="51"/>
+      <c r="K159" s="51"/>
+      <c r="L159" s="51"/>
+      <c r="M159" s="51"/>
+      <c r="N159" s="51"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B160" s="59"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="51"/>
+      <c r="K160" s="51"/>
+      <c r="L160" s="51"/>
+      <c r="M160" s="51"/>
+      <c r="N160" s="51"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B161" s="59"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="51"/>
+      <c r="K161" s="51"/>
+      <c r="L161" s="51"/>
+      <c r="M161" s="51"/>
+      <c r="N161" s="51"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B162" s="59"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="51"/>
+      <c r="K162" s="51"/>
+      <c r="L162" s="51"/>
+      <c r="M162" s="51"/>
+      <c r="N162" s="51"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B163" s="59"/>
+      <c r="C163" s="44"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="51"/>
+      <c r="K163" s="51"/>
+      <c r="L163" s="51"/>
+      <c r="M163" s="51"/>
+      <c r="N163" s="51"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B164" s="59"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="51"/>
+      <c r="K164" s="51"/>
+      <c r="L164" s="51"/>
+      <c r="M164" s="51"/>
+      <c r="N164" s="51"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B165" s="59"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="25"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="26"/>
+      <c r="N165" s="27"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B166" s="59"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="28"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="30"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="59"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="28"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="29"/>
+      <c r="M167" s="29"/>
+      <c r="N167" s="30"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B168" s="59"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="28"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="29"/>
+      <c r="M168" s="29"/>
+      <c r="N168" s="30"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B169" s="59"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="29"/>
+      <c r="M169" s="29"/>
+      <c r="N169" s="30"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="60"/>
+      <c r="C170" s="61"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="31"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="31"/>
+      <c r="K170" s="32"/>
+      <c r="L170" s="32"/>
+      <c r="M170" s="32"/>
+      <c r="N170" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="J100:N104"/>
-    <mergeCell ref="D105:E108"/>
-    <mergeCell ref="F105:G112"/>
-    <mergeCell ref="H105:I108"/>
-    <mergeCell ref="J105:N112"/>
-    <mergeCell ref="D109:E112"/>
-    <mergeCell ref="H109:I112"/>
+  <mergeCells count="92">
+    <mergeCell ref="J165:N170"/>
+    <mergeCell ref="H165:I170"/>
+    <mergeCell ref="F165:G170"/>
+    <mergeCell ref="B127:C170"/>
+    <mergeCell ref="D147:E170"/>
+    <mergeCell ref="D127:E146"/>
+    <mergeCell ref="J147:N150"/>
+    <mergeCell ref="H147:I150"/>
+    <mergeCell ref="F147:G150"/>
+    <mergeCell ref="J151:N164"/>
+    <mergeCell ref="H151:I164"/>
+    <mergeCell ref="F151:G164"/>
+    <mergeCell ref="F127:G130"/>
+    <mergeCell ref="H127:I130"/>
+    <mergeCell ref="J127:N130"/>
+    <mergeCell ref="J131:N138"/>
+    <mergeCell ref="H131:I138"/>
+    <mergeCell ref="F131:G138"/>
+    <mergeCell ref="J139:N146"/>
+    <mergeCell ref="H139:I146"/>
+    <mergeCell ref="F139:G146"/>
+    <mergeCell ref="J126:N126"/>
+    <mergeCell ref="B35:C58"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J117:N123"/>
+    <mergeCell ref="H117:I123"/>
+    <mergeCell ref="F117:G123"/>
+    <mergeCell ref="D89:E123"/>
+    <mergeCell ref="B89:C123"/>
+    <mergeCell ref="J108:N116"/>
+    <mergeCell ref="H108:I116"/>
+    <mergeCell ref="F108:G116"/>
+    <mergeCell ref="J20:N24"/>
+    <mergeCell ref="H29:I32"/>
+    <mergeCell ref="F89:G103"/>
+    <mergeCell ref="H89:I103"/>
+    <mergeCell ref="J89:N103"/>
+    <mergeCell ref="F61:G81"/>
+    <mergeCell ref="H61:I81"/>
+    <mergeCell ref="F51:G58"/>
+    <mergeCell ref="H51:I54"/>
+    <mergeCell ref="J34:N34"/>
     <mergeCell ref="J61:N81"/>
     <mergeCell ref="J82:N86"/>
-    <mergeCell ref="H82:I86"/>
-    <mergeCell ref="F82:G86"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="D89:E104"/>
-    <mergeCell ref="F89:G99"/>
-    <mergeCell ref="H89:I99"/>
-    <mergeCell ref="J89:N99"/>
-    <mergeCell ref="F100:G104"/>
-    <mergeCell ref="H100:I104"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="H46:I50"/>
-    <mergeCell ref="F61:G81"/>
-    <mergeCell ref="H61:I81"/>
-    <mergeCell ref="D35:E50"/>
-    <mergeCell ref="F46:G50"/>
-    <mergeCell ref="F41:G45"/>
-    <mergeCell ref="F35:G40"/>
-    <mergeCell ref="H35:I40"/>
-    <mergeCell ref="H41:I45"/>
-    <mergeCell ref="D51:E54"/>
-    <mergeCell ref="F51:G58"/>
-    <mergeCell ref="H51:I54"/>
-    <mergeCell ref="J51:N58"/>
-    <mergeCell ref="D55:E58"/>
-    <mergeCell ref="H55:I58"/>
-    <mergeCell ref="J35:N45"/>
-    <mergeCell ref="J46:N50"/>
-    <mergeCell ref="D61:E86"/>
+    <mergeCell ref="J104:N107"/>
+    <mergeCell ref="H104:I107"/>
+    <mergeCell ref="F104:G107"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="J25:N32"/>
@@ -8153,8 +13076,32 @@
     <mergeCell ref="H9:I19"/>
     <mergeCell ref="H20:I24"/>
     <mergeCell ref="J9:N19"/>
-    <mergeCell ref="J20:N24"/>
-    <mergeCell ref="H29:I32"/>
+    <mergeCell ref="J51:N58"/>
+    <mergeCell ref="D55:E58"/>
+    <mergeCell ref="H55:I58"/>
+    <mergeCell ref="J35:N45"/>
+    <mergeCell ref="J46:N50"/>
+    <mergeCell ref="H46:I50"/>
+    <mergeCell ref="D35:E50"/>
+    <mergeCell ref="F46:G50"/>
+    <mergeCell ref="F41:G45"/>
+    <mergeCell ref="F35:G40"/>
+    <mergeCell ref="H35:I40"/>
+    <mergeCell ref="H41:I45"/>
+    <mergeCell ref="D51:E54"/>
+    <mergeCell ref="D61:E86"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H82:I86"/>
+    <mergeCell ref="F82:G86"/>
+    <mergeCell ref="B61:C86"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:N88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
